--- a/File_Excel/commenti_odio_per_notizia_politica.xlsx
+++ b/File_Excel/commenti_odio_per_notizia_politica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1012,28 +1012,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1066,16 +1066,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1087,16 +1087,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35">
@@ -1150,16 +1150,58 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Il Corriere Della Sera</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>La morte di Silvio Berlusconi</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>La Repubblica</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>La morte di Silvio Berlusconi</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>YouTube</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>8</v>
+      <c r="E37" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
